--- a/chainsOfFoods/metrics/metrics_sidechain.xlsx
+++ b/chainsOfFoods/metrics/metrics_sidechain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoC\master_thesis\chainsOfFoods\metrics\scenario_1_03072022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoC\master_thesis\chainsOfFoods\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52BFCAC-99B9-4FC2-9087-D89CCF15262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8866C02-A823-4924-A524-F941ECCFB575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2DCA2D6F-E007-4FFD-BD45-EC3C0F1856DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>standard deviation</t>
   </si>
@@ -52,9 +52,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>average per block</t>
-  </si>
-  <si>
     <t>confidence interval -</t>
   </si>
   <si>
@@ -98,6 +95,15 @@
   </si>
   <si>
     <t>max waiting time (sec)</t>
+  </si>
+  <si>
+    <t>20kb</t>
+  </si>
+  <si>
+    <t>block interval</t>
+  </si>
+  <si>
+    <t>average tx per block</t>
   </si>
 </sst>
 </file>
@@ -458,83 +464,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7278A16B-BE31-49A9-A92E-AAF6A7816D9A}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -562,38 +572,42 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
         <v>59</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>40</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.95</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.96</v>
       </c>
-      <c r="P2">
-        <f>M2/SQRT(5)</f>
+      <c r="Q2">
+        <f>N2/SQRT(5)</f>
         <v>0</v>
       </c>
-      <c r="Q2">
-        <f>K2-O2*P2</f>
+      <c r="R2">
+        <f>L2-P2*Q2</f>
         <v>59</v>
       </c>
-      <c r="R2">
-        <f>K2+O2*P2</f>
+      <c r="S2">
+        <f>L2+P2*Q2</f>
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -621,38 +635,42 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
         <v>49</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>60</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.95</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.96</v>
       </c>
-      <c r="P3">
-        <f>M3/SQRT(5)</f>
+      <c r="Q3">
+        <f>N3/SQRT(5)</f>
         <v>0</v>
       </c>
-      <c r="Q3">
-        <f>K3-O3*P3</f>
+      <c r="R3">
+        <f>L3-P3*Q3</f>
         <v>49</v>
       </c>
-      <c r="R3">
-        <f>K3+O3*P3</f>
+      <c r="S3">
+        <f>L3+P3*Q3</f>
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -680,35 +698,125 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <f>10</f>
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>70</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.95</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.96</v>
       </c>
-      <c r="P4">
-        <f>M4/SQRT(5)</f>
+      <c r="Q4">
+        <f>N4/SQRT(5)</f>
         <v>0</v>
       </c>
-      <c r="Q4">
-        <f>K4-O4*P4</f>
+      <c r="R4">
+        <f>L4-P4*Q4</f>
         <v>30</v>
       </c>
-      <c r="R4">
-        <f>K4+O4*P4</f>
+      <c r="S4">
+        <f>L4+P4*Q4</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>39</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+      <c r="P5">
+        <v>1.96</v>
+      </c>
+      <c r="Q5">
+        <f>N5/SQRT(5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>L5-P5*Q5</f>
+        <v>39</v>
+      </c>
+      <c r="S5">
+        <f>L5+P5*Q5</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
